--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -124,6 +124,27 @@
     <t>In the provided code, the value of mod is set to 1e9 + 7, which is equal to 1,000,000,007. This is a commonly used value for modulo operations, especially in programming contests or when dealing with large numbers.
 Setting mod to this value ensures that the final answer, stored in the ans variable, remains within this range. It helps prevent overflow and keeps the result manageable and consistent with the expected range of values.</t>
   </si>
+  <si>
+    <t>Kadanes Algorithm</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/kadanes-algorithm-1587115620</t>
+  </si>
+  <si>
+    <t>max function see in problem , kadane is diff for +ve and both</t>
+  </si>
+  <si>
+    <t>Maximum circular sub array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/max-circular-subarray-sum-1587115620</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>see it again</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +166,12 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -234,10 +261,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -246,43 +273,43 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -667,7 +694,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -755,7 +782,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -799,7 +826,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -845,7 +872,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -891,7 +918,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -937,7 +964,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -987,7 +1014,7 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>45110</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1029,9 +1056,11 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="11"/>
-      <c r="B10" s="15">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
         <v>45110</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1074,14 +1103,30 @@
       <c r="AB10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>45111</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="5"/>
@@ -1105,13 +1150,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="11"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="12">
+        <v>45111</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="5"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -145,6 +145,24 @@
   <si>
     <t>see it again</t>
   </si>
+  <si>
+    <t>Remove element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-element/submissions/987107209/</t>
+  </si>
+  <si>
+    <t>Same approach as moving zeroes</t>
+  </si>
+  <si>
+    <t>Container with most water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>flavor of  tapping rain water</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1149,7 +1167,9 @@
       <c r="AB11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
       <c r="B12" s="12">
         <v>45111</v>
       </c>
@@ -1193,14 +1213,30 @@
       <c r="AB12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="11"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="5"/>
@@ -1223,14 +1259,30 @@
       <c r="AB13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45112</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="5"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -193,6 +193,25 @@
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/-matchsticks-game4906</t>
   </si>
+  <si>
+    <t xml:space="preserve">Check if array is sorted and rotated
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/check-if-array-is-sorted-and-rotated-clockwise-1587115620</t>
+  </si>
+  <si>
+    <t>Reverse in groups</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/reverse-array-in-groups0255</t>
+  </si>
+  <si>
+    <t>Rearrange Array with o(1) extra space</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/rearrange-an-array-with-o1-extra-space3142</t>
+  </si>
 </sst>
 </file>
 
@@ -348,11 +367,11 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,16 +1570,30 @@
       <c r="AB19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="11"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>45115</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1581,16 +1614,30 @@
       <c r="AB20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1611,16 +1658,30 @@
       <c r="AB21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1642,7 +1703,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="11"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1650,7 +1711,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1672,7 +1733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="11"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -1680,7 +1741,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1702,7 +1763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1710,7 +1771,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1732,7 +1793,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
       <c r="A26" s="11"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1740,7 +1801,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1762,7 +1823,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
       <c r="A27" s="11"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -1770,7 +1831,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1792,7 +1853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
       <c r="A28" s="11"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1800,7 +1861,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1822,7 +1883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
       <c r="A29" s="11"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -1830,7 +1891,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -1852,7 +1913,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21">
       <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -1860,7 +1921,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -1882,7 +1943,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="11"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -1890,7 +1951,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -1912,7 +1973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -1920,7 +1981,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -1942,7 +2003,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="11"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -1950,7 +2011,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -1972,7 +2033,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="11"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -1980,7 +2041,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2002,7 +2063,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="11"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -2010,7 +2071,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2032,7 +2093,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="11"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -2040,7 +2101,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -2062,7 +2123,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="11"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -2070,7 +2131,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2092,7 +2153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="11"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -2100,7 +2161,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -2122,7 +2183,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -2130,7 +2191,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="16"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -2152,7 +2213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="11"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -2160,7 +2221,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -2182,7 +2243,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="11"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2190,7 +2251,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2212,7 +2273,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="11"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2220,7 +2281,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2242,7 +2303,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="11"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -2250,7 +2311,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="16"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2272,7 +2333,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2280,7 +2341,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2302,7 +2363,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2310,7 +2371,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="16"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -2332,7 +2393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -2340,7 +2401,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="16"/>
+      <c r="J46" s="15"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2362,7 +2423,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -2370,7 +2431,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="16"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2392,7 +2453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -2400,7 +2461,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="16"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2422,7 +2483,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="11"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -2430,7 +2491,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="16"/>
+      <c r="J49" s="15"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -2452,7 +2513,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="11"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -2460,7 +2521,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="16"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2482,7 +2543,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="11"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -2490,7 +2551,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2512,7 +2573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="11"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -2520,7 +2581,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="16"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2542,7 +2603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="11"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -2550,7 +2611,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="16"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2572,7 +2633,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="11"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -2580,7 +2641,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="16"/>
+      <c r="J54" s="15"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -2602,7 +2663,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="11"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -2610,7 +2671,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="16"/>
+      <c r="J55" s="15"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -2632,7 +2693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="11"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -2640,7 +2701,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="16"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -2662,7 +2723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="11"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -2670,7 +2731,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="15"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -2692,7 +2753,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="11"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -2700,7 +2761,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="16"/>
+      <c r="J58" s="15"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -2722,7 +2783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="11"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -2730,7 +2791,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="16"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -2752,7 +2813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="11"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -2760,7 +2821,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="16"/>
+      <c r="J60" s="15"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -2782,7 +2843,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="11"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -2790,7 +2851,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -2812,7 +2873,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="11"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -2820,7 +2881,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="15"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -2842,7 +2903,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="11"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -2850,7 +2911,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="16"/>
+      <c r="J63" s="15"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -211,6 +211,61 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/rearrange-an-array-with-o1-extra-space3142</t>
+  </si>
+  <si>
+    <t>Rearrange Alternatively</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/-rearrange-array-alternately-1587115620/0</t>
+  </si>
+  <si>
+    <t>Smallest positive missing number</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/smallest-positive-missing-number-1587115621</t>
+  </si>
+  <si>
+    <t>Find the safe Position</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/game-of-death-in-a-circle1840/0</t>
+  </si>
+  <si>
+    <t>Longest Subarray Of Evens And Odds</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/longest-subarray-of-evens-and-odds</t>
+  </si>
+  <si>
+    <t>Who has Majority</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/who-has-the-majority</t>
+  </si>
+  <si>
+    <t>Betting Game</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/betting-game0634</t>
+  </si>
+  <si>
+    <t>Strongest Neighbour</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/strongest-neighbour</t>
+  </si>
+  <si>
+    <t>Frequency Of Limted range array elements</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/frequency-of-array-elements-1587115620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum adjacent difference in a circular arrayMinimum adjacent difference in a circular array
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/minimum-absloute-difference-between-adjacent-elements-in-a-circular-array-1587115620</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1178,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1618,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12">
-        <v>45116</v>
+        <v>45115</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>9</v>
@@ -1662,7 +1717,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12">
-        <v>45116</v>
+        <v>45115</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>9</v>
@@ -1702,13 +1757,27 @@
       <c r="AB22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="15"/>
@@ -1732,13 +1801,27 @@
       <c r="AB23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="15"/>
@@ -1762,13 +1845,27 @@
       <c r="AB24" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="15"/>
@@ -1792,13 +1889,27 @@
       <c r="AB25" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="15"/>
@@ -1822,13 +1933,27 @@
       <c r="AB26" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
-      <c r="A27" s="11"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="15"/>
@@ -1852,13 +1977,27 @@
       <c r="AB27" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
-      <c r="A28" s="11"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="15"/>
@@ -1882,13 +2021,27 @@
       <c r="AB28" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
-      <c r="A29" s="11"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="15"/>
@@ -1912,13 +2065,27 @@
       <c r="AB29" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21">
-      <c r="A30" s="11"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="15"/>
@@ -1942,11 +2109,21 @@
       <c r="AB30" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="11"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/minimum-absloute-difference-between-adjacent-elements-in-a-circular-array-1587115620</t>
+  </si>
+  <si>
+    <t>Wave Array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/wave-array-1587115621</t>
+  </si>
+  <si>
+    <t>Maximum occured integer</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/maximum-occured-integer4602</t>
+  </si>
+  <si>
+    <t>Pattern searching</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/pattern-searching5231</t>
   </si>
 </sst>
 </file>
@@ -2124,8 +2142,12 @@
       <c r="E31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="15"/>
@@ -2149,13 +2171,27 @@
       <c r="AB31" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="11"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="15"/>
@@ -2179,13 +2215,27 @@
       <c r="AB32" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="11"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="15"/>
@@ -2209,12 +2259,24 @@
       <c r="AB33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="11"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12">
+        <v>45116</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -225,6 +225,9 @@
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/smallest-positive-missing-number-1587115621</t>
   </si>
   <si>
+    <t>Cyclic Sort</t>
+  </si>
+  <si>
     <t>Find the safe Position</t>
   </si>
   <si>
@@ -284,6 +287,27 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/pattern-searching5231</t>
+  </si>
+  <si>
+    <t>Number print without loop</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Arrays/problem/print-pattern3549</t>
+  </si>
+  <si>
+    <t>Transpose of Matrix</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/transpose-of-matrix-1587115621/1</t>
+  </si>
+  <si>
+    <t>Find Duplicates in sorted Array Zoho</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-duplicates-in-an-array/1?page=1&amp;difficulty[]=0&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>SEE it after completing searching and sorting</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1864,9 @@
       <c r="G24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="15"/>
       <c r="K24" s="5"/>
@@ -1873,10 +1899,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>24</v>
@@ -1917,10 +1943,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>24</v>
@@ -1961,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>11</v>
@@ -2005,10 +2031,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>11</v>
@@ -2049,10 +2075,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>11</v>
@@ -2093,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>11</v>
@@ -2126,7 +2152,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -2137,10 +2163,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>11</v>
@@ -2170,7 +2196,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2181,10 +2207,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>11</v>
@@ -2214,7 +2240,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -2225,10 +2251,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>24</v>
@@ -2258,7 +2284,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2269,15 +2295,17 @@
         <v>9</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="15"/>
@@ -2300,14 +2328,26 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
       <c r="A35" s="11"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="B35" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="15"/>
@@ -2330,14 +2370,26 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
       <c r="A36" s="11"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="15"/>
@@ -2360,15 +2412,29 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
       <c r="A37" s="11"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="15"/>
       <c r="K37" s="5"/>
@@ -2390,7 +2456,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
       <c r="A38" s="11"/>
       <c r="B38" s="16"/>
       <c r="C38" s="13"/>
@@ -2420,7 +2486,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
       <c r="A39" s="11"/>
       <c r="B39" s="16"/>
       <c r="C39" s="13"/>
@@ -2450,7 +2516,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
       <c r="A40" s="11"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13"/>
@@ -2480,7 +2546,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="11"/>
       <c r="B41" s="16"/>
       <c r="C41" s="13"/>
@@ -2510,7 +2576,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
       <c r="A42" s="11"/>
       <c r="B42" s="16"/>
       <c r="C42" s="13"/>
@@ -2540,7 +2606,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
       <c r="A43" s="11"/>
       <c r="B43" s="16"/>
       <c r="C43" s="13"/>
@@ -2570,7 +2636,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
       <c r="A44" s="11"/>
       <c r="B44" s="16"/>
       <c r="C44" s="13"/>
@@ -2600,7 +2666,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
       <c r="A45" s="11"/>
       <c r="B45" s="16"/>
       <c r="C45" s="13"/>
@@ -2630,7 +2696,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
       <c r="A46" s="11"/>
       <c r="B46" s="16"/>
       <c r="C46" s="13"/>
@@ -2660,7 +2726,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21">
       <c r="A47" s="11"/>
       <c r="B47" s="16"/>
       <c r="C47" s="13"/>
@@ -2690,7 +2756,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
       <c r="A48" s="11"/>
       <c r="B48" s="16"/>
       <c r="C48" s="13"/>
@@ -2720,7 +2786,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21">
       <c r="A49" s="11"/>
       <c r="B49" s="16"/>
       <c r="C49" s="13"/>
@@ -2750,7 +2816,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21">
       <c r="A50" s="11"/>
       <c r="B50" s="16"/>
       <c r="C50" s="13"/>
@@ -2780,7 +2846,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="21">
       <c r="A51" s="11"/>
       <c r="B51" s="16"/>
       <c r="C51" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -308,6 +308,30 @@
   </si>
   <si>
     <t>SEE it after completing searching and sorting</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from sorted array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/remove-duplicate-elements-from-sorted-array/1</t>
+  </si>
+  <si>
+    <t>Keep track of where next unique elements to be placed</t>
+  </si>
+  <si>
+    <t>Check if array is sorted in non decresing order</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-if-an-array-is-sorted0701/1</t>
+  </si>
+  <si>
+    <t>Move Zeroes to end</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/move-all-zeroes-to-end-of-array0751/1</t>
+  </si>
+  <si>
+    <t>Initialise the count to keep track of where next non zero elements is to be placed</t>
   </si>
 </sst>
 </file>
@@ -2458,13 +2482,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
       <c r="A38" s="11"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="B38" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="15"/>
       <c r="K38" s="5"/>
@@ -2488,12 +2526,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
       <c r="A39" s="11"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="B39" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="15"/>
@@ -2518,13 +2568,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
       <c r="A40" s="11"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="B40" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="15"/>
       <c r="K40" s="5"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Initialise the count to keep track of where next non zero elements is to be placed</t>
+  </si>
+  <si>
+    <t>Find kth element of spiral matrix</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-nth-element-of-spiral-matrix/1</t>
+  </si>
+  <si>
+    <t>See lamda function</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1253,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="26.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2353,7 +2362,9 @@
       <c r="AB34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
       <c r="B35" s="12">
         <v>45117</v>
       </c>
@@ -2395,7 +2406,9 @@
       <c r="AB35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
       <c r="B36" s="12">
         <v>45117</v>
       </c>
@@ -2437,7 +2450,9 @@
       <c r="AB36" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
-      <c r="A37" s="11"/>
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
       <c r="B37" s="12">
         <v>45117</v>
       </c>
@@ -2481,7 +2496,9 @@
       <c r="AB37" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
-      <c r="A38" s="11"/>
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
       <c r="B38" s="12">
         <v>45117</v>
       </c>
@@ -2525,7 +2542,9 @@
       <c r="AB38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
-      <c r="A39" s="11"/>
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
       <c r="B39" s="12">
         <v>45117</v>
       </c>
@@ -2567,7 +2586,9 @@
       <c r="AB39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
-      <c r="A40" s="11"/>
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
       <c r="B40" s="12">
         <v>45117</v>
       </c>
@@ -2611,14 +2632,30 @@
       <c r="AB40" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
-      <c r="A41" s="11"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12">
+        <v>45118</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="15"/>
       <c r="K41" s="5"/>
@@ -2641,7 +2678,9 @@
       <c r="AB41" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>See lamda function</t>
+  </si>
+  <si>
+    <t>POTD</t>
+  </si>
+  <si>
+    <t>Power of number</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/power-of-numbers-1587115620/1</t>
   </si>
 </sst>
 </file>
@@ -2681,10 +2690,18 @@
       <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="12">
+        <v>45119</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/power-of-numbers-1587115620/1</t>
+  </si>
+  <si>
+    <t>Sort array of 0,1,2</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1?page=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Key pair value</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/key-pair5616/1?page=1&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -2702,8 +2714,12 @@
       <c r="E42" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="15"/>
@@ -2727,13 +2743,27 @@
       <c r="AB42" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
-      <c r="A43" s="11"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12">
+        <v>45119</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="15"/>
@@ -2757,13 +2787,27 @@
       <c r="AB43" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
-      <c r="A44" s="11"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12">
+        <v>45119</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="15"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/key-pair5616/1?page=1&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Element with left side smaller and right side greater</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/unsorted-array4925/1?page=1&amp;difficulty[]=0&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -2831,11 +2837,21 @@
       <c r="AB44" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
-      <c r="A45" s="11"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12">
+        <v>45119</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Revision Status</t>
   </si>
   <si>
     <t>Array</t>
@@ -368,6 +371,13 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/unsorted-array4925/1?page=1&amp;difficulty[]=0&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Number of Occurrences
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/unique-frequencies-of-not/1</t>
   </si>
 </sst>
 </file>
@@ -859,7 +869,7 @@
     <col min="1" max="1" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="40.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="59.71928571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="21" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -943,7 +953,9 @@
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -972,17 +984,17 @@
         <v>45108</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1014,19 +1026,19 @@
         <v>45109</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1058,22 +1070,22 @@
         <v>45109</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1104,22 +1116,22 @@
         <v>45109</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1150,22 +1162,22 @@
         <v>45109</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1196,22 +1208,22 @@
         <v>45109</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1242,22 +1254,22 @@
         <v>45110</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1288,22 +1300,22 @@
         <v>45110</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1334,22 +1346,22 @@
         <v>45111</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1380,22 +1392,22 @@
         <v>45111</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1426,22 +1438,22 @@
         <v>45112</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1472,22 +1484,22 @@
         <v>45112</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1518,19 +1530,19 @@
         <v>45113</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1562,19 +1574,19 @@
         <v>45113</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1606,19 +1618,19 @@
         <v>45113</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1650,14 +1662,14 @@
         <v>45113</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1690,19 +1702,19 @@
         <v>45114</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1734,19 +1746,19 @@
         <v>45115</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -1778,19 +1790,19 @@
         <v>45115</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -1822,19 +1834,19 @@
         <v>45115</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1866,19 +1878,19 @@
         <v>45116</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1910,22 +1922,22 @@
         <v>45116</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="15"/>
@@ -1956,19 +1968,19 @@
         <v>45116</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -2000,19 +2012,19 @@
         <v>45116</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -2044,19 +2056,19 @@
         <v>45116</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2088,19 +2100,19 @@
         <v>45116</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -2132,19 +2144,19 @@
         <v>45116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -2176,19 +2188,19 @@
         <v>45116</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -2220,19 +2232,19 @@
         <v>45116</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -2264,19 +2276,19 @@
         <v>45116</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -2308,19 +2320,19 @@
         <v>45116</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -2352,19 +2364,19 @@
         <v>45116</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -2396,19 +2408,19 @@
         <v>45117</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -2440,19 +2452,19 @@
         <v>45117</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -2484,22 +2496,22 @@
         <v>45117</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="15"/>
@@ -2530,22 +2542,22 @@
         <v>45117</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="15"/>
@@ -2576,19 +2588,19 @@
         <v>45117</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -2620,22 +2632,22 @@
         <v>45117</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="15"/>
@@ -2666,22 +2678,22 @@
         <v>45118</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="15"/>
@@ -2712,19 +2724,19 @@
         <v>45119</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -2756,19 +2768,19 @@
         <v>45119</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -2800,19 +2812,19 @@
         <v>45119</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -2844,15 +2856,17 @@
         <v>45119</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -2877,12 +2891,24 @@
       <c r="AB45" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
-      <c r="A46" s="11"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12">
+        <v>45120</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -3056,7 +3082,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="21">
       <c r="A52" s="11"/>
       <c r="B52" s="16"/>
       <c r="C52" s="13"/>
@@ -3086,7 +3112,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="21">
       <c r="A53" s="11"/>
       <c r="B53" s="16"/>
       <c r="C53" s="13"/>
@@ -3116,7 +3142,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="21">
       <c r="A54" s="11"/>
       <c r="B54" s="16"/>
       <c r="C54" s="13"/>
@@ -3146,7 +3172,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="21">
       <c r="A55" s="11"/>
       <c r="B55" s="16"/>
       <c r="C55" s="13"/>
@@ -3176,7 +3202,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="21">
       <c r="A56" s="11"/>
       <c r="B56" s="16"/>
       <c r="C56" s="13"/>
@@ -3206,7 +3232,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="21">
       <c r="A57" s="11"/>
       <c r="B57" s="16"/>
       <c r="C57" s="13"/>
@@ -3236,7 +3262,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="21">
       <c r="A58" s="11"/>
       <c r="B58" s="16"/>
       <c r="C58" s="13"/>
@@ -3266,7 +3292,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="21">
       <c r="A59" s="11"/>
       <c r="B59" s="16"/>
       <c r="C59" s="13"/>
@@ -3296,7 +3322,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="21">
       <c r="A60" s="11"/>
       <c r="B60" s="16"/>
       <c r="C60" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -2867,7 +2867,9 @@
       <c r="F45" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="15"/>
@@ -2909,7 +2911,9 @@
       <c r="F46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="15"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -378,6 +378,16 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/unique-frequencies-of-not/1</t>
+  </si>
+  <si>
+    <t>14/07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement two stacks in an array
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implement-two-stacks-in-an-array/1</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1302,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="26.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2937,11 +2947,21 @@
       <c r="AB46" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21">
-      <c r="A47" s="11"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/finding-middle-element-in-a-linked-list/1?page=1&amp;difficulty[]=0&amp;company[]=Zoho&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>Palindrome</t>
@@ -388,6 +391,12 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/implement-two-stacks-in-an-array/1</t>
+  </si>
+  <si>
+    <t>15/07/23</t>
+  </si>
+  <si>
+    <t>Delete middle element of an stack</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1311,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1675,13 +1684,15 @@
         <v>10</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1715,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>25</v>
@@ -1759,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>25</v>
@@ -1803,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>12</v>
@@ -1847,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>25</v>
@@ -1891,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>25</v>
@@ -1935,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>25</v>
@@ -1947,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="15"/>
@@ -1981,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>25</v>
@@ -2025,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>25</v>
@@ -2069,10 +2080,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>12</v>
@@ -2113,10 +2124,10 @@
         <v>10</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>12</v>
@@ -2157,10 +2168,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>12</v>
@@ -2201,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>12</v>
@@ -2245,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>12</v>
@@ -2289,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>12</v>
@@ -2333,10 +2344,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>25</v>
@@ -2377,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>12</v>
@@ -2421,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>12</v>
@@ -2465,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>12</v>
@@ -2509,10 +2520,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>12</v>
@@ -2521,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="15"/>
@@ -2555,10 +2566,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>12</v>
@@ -2567,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="15"/>
@@ -2601,10 +2612,10 @@
         <v>10</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>12</v>
@@ -2645,10 +2656,10 @@
         <v>10</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>12</v>
@@ -2657,7 +2668,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="15"/>
@@ -2691,10 +2702,10 @@
         <v>10</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>25</v>
@@ -2703,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="15"/>
@@ -2734,13 +2745,13 @@
         <v>45119</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>25</v>
@@ -2781,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>12</v>
@@ -2825,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>12</v>
@@ -2869,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>12</v>
@@ -2913,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>12</v>
@@ -2951,19 +2962,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="15"/>
@@ -2987,13 +3002,25 @@
       <c r="AB47" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
-      <c r="A48" s="11"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="15"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Delete middle element of an stack</t>
+  </si>
+  <si>
+    <t>16/07/23</t>
+  </si>
+  <si>
+    <t>Reverse the stack</t>
   </si>
 </sst>
 </file>
@@ -3044,13 +3050,25 @@
       <c r="AB48" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21">
-      <c r="A49" s="11"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="15"/>
@@ -3074,7 +3092,9 @@
       <c r="AB49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21">
-      <c r="A50" s="11"/>
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3403,7 +3423,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="21">
       <c r="A61" s="11"/>
       <c r="B61" s="16"/>
       <c r="C61" s="13"/>
@@ -3433,7 +3453,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="21">
       <c r="A62" s="11"/>
       <c r="B62" s="16"/>
       <c r="C62" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="132">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>Reverse the stack</t>
+  </si>
+  <si>
+    <t>17/07/23</t>
+  </si>
+  <si>
+    <t>First non-repeating character in a stream</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/first-non-repeating-character-in-a-stream1216/1</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
 </sst>
 </file>
@@ -3095,11 +3107,21 @@
       <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="B50" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>18/07/23</t>
+  </si>
+  <si>
+    <t>Array-Searching</t>
+  </si>
+  <si>
+    <t>Floor in a Sorted Array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/floor-in-a-sorted-array-1587115620</t>
   </si>
 </sst>
 </file>
@@ -3146,12 +3158,24 @@
       <c r="AB50" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="21">
-      <c r="A51" s="11"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/floor-in-a-sorted-array-1587115620</t>
+  </si>
+  <si>
+    <t>Left most index</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/left-index-1587115620</t>
+  </si>
+  <si>
+    <t>Basic</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1350,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -3200,12 +3209,24 @@
       <c r="AB51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="21">
-      <c r="A52" s="11"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="16">
+        <v>45126</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -429,6 +429,9 @@
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/floor-in-a-sorted-array-1587115620</t>
   </si>
   <si>
+    <t>19/07/23</t>
+  </si>
+  <si>
     <t>Left most index</t>
   </si>
   <si>
@@ -436,6 +439,15 @@
   </si>
   <si>
     <t>Basic</t>
+  </si>
+  <si>
+    <t>20/07/23</t>
+  </si>
+  <si>
+    <t>Count More than n/k Occurences</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-element-occurences</t>
   </si>
 </sst>
 </file>
@@ -3212,20 +3224,20 @@
       <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="16">
-        <v>45126</v>
+      <c r="B52" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -3251,12 +3263,24 @@
       <c r="AB52" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="21">
-      <c r="A53" s="11"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-element-occurences</t>
+  </si>
+  <si>
+    <t>Maximum index</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/majority-element-1587115620</t>
   </si>
 </sst>
 </file>
@@ -3305,11 +3311,21 @@
       <c r="AB53" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="21">
-      <c r="A54" s="11"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="16">
+        <v>45128</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="149">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -450,10 +450,23 @@
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-element-occurences</t>
   </si>
   <si>
+    <t>21/07/23</t>
+  </si>
+  <si>
     <t>Maximum index</t>
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/majority-element-1587115620</t>
+  </si>
+  <si>
+    <t>22/07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count 1's in binary array
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-1s-in-binary-array-1587115620</t>
   </si>
 </sst>
 </file>
@@ -3314,17 +3327,17 @@
       <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="16">
-        <v>45128</v>
+      <c r="B54" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -3351,11 +3364,19 @@
       <c r="AB54" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="21">
-      <c r="A55" s="11"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-1s-in-binary-array-1587115620</t>
+  </si>
+  <si>
+    <t>sub array sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/subarray-with-given-sum-1587115621</t>
   </si>
 </sst>
 </file>
@@ -3370,7 +3376,9 @@
       <c r="B55" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="D55" s="13" t="s">
         <v>147</v>
       </c>
@@ -3402,11 +3410,19 @@
       <c r="AB55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="21">
-      <c r="A56" s="11"/>
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
       <c r="B56" s="16"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -473,6 +473,16 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/subarray-with-given-sum-1587115621</t>
+  </si>
+  <si>
+    <t>24/07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Positive missing number
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/smallest-positive-missing-number-1587115621</t>
   </si>
 </sst>
 </file>
@@ -3448,11 +3458,21 @@
       <c r="AB56" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="21">
-      <c r="A57" s="11"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -3627,7 +3647,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="21">
       <c r="A63" s="11"/>
       <c r="B63" s="16"/>
       <c r="C63" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="157">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -469,6 +469,9 @@
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/count-1s-in-binary-array-1587115620</t>
   </si>
   <si>
+    <t>23/07/23</t>
+  </si>
+  <si>
     <t>sub array sum</t>
   </si>
   <si>
@@ -483,6 +486,13 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/smallest-positive-missing-number-1587115621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of occurrence
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-occurrence2259/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3423,15 +3433,17 @@
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="C56" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -3462,16 +3474,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -3498,11 +3510,21 @@
       <c r="AB57" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="21">
-      <c r="A58" s="11"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="16">
+        <v>45132</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="162">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -488,11 +488,26 @@
     <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/smallest-positive-missing-number-1587115621</t>
   </si>
   <si>
+    <t>25/07/23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of occurrence
 </t>
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/number-of-occurrence2259/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>26/07/23</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Find missing in second array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/in-first-but-second5423/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3513,17 +3528,17 @@
       <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="16">
-        <v>45132</v>
+      <c r="B58" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -3550,11 +3565,21 @@
       <c r="AB58" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="21">
-      <c r="A59" s="11"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -508,6 +508,14 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/in-first-but-second5423/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element
+Kth smallest element
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/kth-smallest-element5635/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3605,11 +3613,19 @@
       <c r="AB59" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="21">
-      <c r="A60" s="11"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="16">
+        <v>45134</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -516,6 +516,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/kth-smallest-element5635/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>28/07/23</t>
+  </si>
+  <si>
+    <t>Missing number in array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/missing-number-in-array1416/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3621,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="36">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -3651,11 +3660,21 @@
       <c r="AB60" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="21">
-      <c r="A61" s="11"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/missing-number-in-array1416/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>29/07/23</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-product-subarray3604/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3700,13 +3709,27 @@
       <c r="AB61" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="21">
-      <c r="A62" s="11"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="15"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="175">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -510,6 +510,13 @@
     <t>https://practice.geeksforgeeks.org/problems/in-first-but-second5423/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;company[]=Zoho&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
   <si>
+    <t>27/07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kth smallest element
 Kth smallest element
 </t>
@@ -534,6 +541,16 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/maximum-product-subarray3604/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>30/07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k largest elements
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/k-largest-elements4206/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -3634,15 +3651,17 @@
       <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="16">
-        <v>45134</v>
-      </c>
-      <c r="C60" s="13"/>
+      <c r="B60" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="D60" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -3673,16 +3692,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -3713,16 +3732,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>25</v>
@@ -3753,12 +3772,24 @@
       <c r="AB62" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="21">
-      <c r="A63" s="11"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="178">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -552,6 +552,15 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/k-largest-elements4206/1?page=1&amp;difficulty[]=1&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>31/07/23</t>
+  </si>
+  <si>
+    <t>Count pairs with given sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-pairs-with-given-sum5022/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -3814,12 +3823,24 @@
       <c r="AB63" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="17">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="181">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -561,6 +561,15 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/count-pairs-with-given-sum5022/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;category[]=Arrays&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>1-8-23</t>
+  </si>
+  <si>
+    <t>Peek element</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/peak-element/1?page=1&amp;status[]=unsolved&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -1042,7 +1051,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -3822,7 +3831,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="21">
       <c r="A64" s="17">
         <v>62</v>
       </c>
@@ -3865,12 +3874,24 @@
       <c r="AB64" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="17">
+        <v>63</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -31914,36 +31935,6 @@
       <c r="AA999" s="5"/>
       <c r="AB999" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="18.75">
-      <c r="A1000" s="17"/>
-      <c r="B1000" s="18"/>
-      <c r="C1000" s="10"/>
-      <c r="D1000" s="10"/>
-      <c r="E1000" s="10"/>
-      <c r="F1000" s="10"/>
-      <c r="G1000" s="10"/>
-      <c r="H1000" s="10"/>
-      <c r="I1000" s="10"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
-      <c r="AA1000" s="5"/>
-      <c r="AB1000" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -570,6 +570,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/peak-element/1?page=1&amp;status[]=unsolved&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>2-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Repeating Element
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/first-repeating-element4018/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -3873,7 +3883,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="21">
       <c r="A65" s="17">
         <v>63</v>
       </c>
@@ -3916,11 +3926,21 @@
       <c r="AB65" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="A66" s="17">
+        <v>64</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -580,6 +580,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/first-repeating-element4018/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>3-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all negative elements to end
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/move-all-negative-elements-to-end1813/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -3925,7 +3935,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="21">
       <c r="A66" s="17">
         <v>64</v>
       </c>
@@ -3966,11 +3976,21 @@
       <c r="AB66" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="A67" s="17">
+        <v>65</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -590,6 +590,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/move-all-negative-elements-to-end1813/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>4-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Subset of another array
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/array-subset-of-another-array2317/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -3975,7 +3985,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="21">
       <c r="A67" s="17">
         <v>65</v>
       </c>
@@ -4016,11 +4026,21 @@
       <c r="AB67" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="A68" s="17">
+        <v>66</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="193">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -600,6 +600,17 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/array-subset-of-another-array2317/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>5-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem
+Chocolate Distribution Problem
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/chocolate-distribution-problem3825/1</t>
+  </si>
 </sst>
 </file>
 
@@ -4025,7 +4036,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="21">
       <c r="A68" s="17">
         <v>66</v>
       </c>
@@ -4066,11 +4077,21 @@
       <c r="AB68" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="A69" s="17">
+        <v>67</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="196">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -611,6 +611,15 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/chocolate-distribution-problem3825/1</t>
   </si>
+  <si>
+    <t>6-8-23</t>
+  </si>
+  <si>
+    <t>Alternate positive and negative numbers</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/array-of-alternate-ve-and-ve-nos1401/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -4076,7 +4085,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="31.5">
       <c r="A69" s="17">
         <v>67</v>
       </c>
@@ -4117,11 +4126,21 @@
       <c r="AB69" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="A70" s="17">
+        <v>68</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="199">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -620,6 +620,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/array-of-alternate-ve-and-ve-nos1401/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>7-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subarray with 0 sum
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-0-sum-1587115621/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -4125,7 +4135,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="21">
       <c r="A70" s="17">
         <v>68</v>
       </c>
@@ -4167,10 +4177,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -630,6 +630,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/subarray-with-0-sum-1587115621/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>8-8-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Repeating Element
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/non-repeating-element3958/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -4176,7 +4186,9 @@
       <c r="AB70" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="17"/>
+      <c r="A71" s="17">
+        <v>69</v>
+      </c>
       <c r="B71" s="18" t="s">
         <v>196</v>
       </c>
@@ -4214,11 +4226,21 @@
       <c r="AB71" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="A72" s="17">
+        <v>70</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -640,6 +640,16 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/non-repeating-element3958/1?page=1&amp;difficulty[]=0&amp;status[]=unsolved&amp;sprint=50746f92a895c22a50504ac0c1fb9c84&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>1-9-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First and last occurrences of x
+</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/first-and-last-occurrences-of-x3116/1</t>
+  </si>
 </sst>
 </file>
 
@@ -4185,7 +4195,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="21">
       <c r="A71" s="17">
         <v>69</v>
       </c>
@@ -4225,7 +4235,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="21">
       <c r="A72" s="17">
         <v>70</v>
       </c>
@@ -4296,11 +4306,21 @@
       <c r="AB73" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="A74" s="17">
+        <v>71</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="207">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -650,6 +650,12 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/first-and-last-occurrences-of-x3116/1</t>
   </si>
+  <si>
+    <t>2-9-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First 2 repeating elements </t>
+  </si>
 </sst>
 </file>
 
@@ -4305,7 +4311,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="21">
       <c r="A74" s="17">
         <v>71</v>
       </c>
@@ -4346,10 +4352,18 @@
       <c r="AB74" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
+      <c r="A75" s="17">
+        <v>72</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="208">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -656,6 +656,9 @@
   <si>
     <t xml:space="preserve">First 2 repeating elements </t>
   </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/batch/dsa-4/track/DSASP-Searching/problem/two-repeated-elements-1587115621</t>
+  </si>
 </sst>
 </file>
 
@@ -4351,7 +4354,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="21">
       <c r="A75" s="17">
         <v>72</v>
       </c>
@@ -4364,7 +4367,9 @@
       <c r="D75" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>

--- a/MyDsaSheet.xlsx
+++ b/MyDsaSheet.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="Daily Sheet"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="214">
   <si>
     <t>My Dsa Sheet</t>
   </si>
@@ -671,6 +671,12 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1?page=1&amp;difficulty[]=0&amp;sortBy=submissions</t>
   </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/union-of-two-arrays3538/1?page=1&amp;difficulty[]=-1&amp;company[]=Zoho&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Very Easy</t>
+  </si>
 </sst>
 </file>
 
@@ -3552,7 +3558,9 @@
       <c r="E54" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -3592,7 +3600,9 @@
       <c r="E55" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -3632,7 +3642,9 @@
       <c r="E56" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -3672,7 +3684,9 @@
       <c r="E57" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -3712,7 +3726,9 @@
       <c r="E58" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -3752,7 +3768,9 @@
       <c r="E59" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -3792,7 +3810,9 @@
       <c r="E60" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
@@ -3832,7 +3852,9 @@
       <c r="E61" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -4042,7 +4064,9 @@
       <c r="E66" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -4082,7 +4106,9 @@
       <c r="E67" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -4122,7 +4148,9 @@
       <c r="E68" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -4162,7 +4190,9 @@
       <c r="E69" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -4202,7 +4232,9 @@
       <c r="E70" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
@@ -4242,7 +4274,9 @@
       <c r="E71" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -4282,7 +4316,9 @@
       <c r="E72" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -4312,7 +4348,9 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
@@ -4352,7 +4390,9 @@
       <c r="E74" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -4392,7 +4432,9 @@
       <c r="E75" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
@@ -4432,7 +4474,9 @@
       <c r="E76" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
@@ -4456,7 +4500,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="21">
       <c r="A77" s="17">
         <v>73</v>
       </c>
@@ -4470,7 +4514,9 @@
       <c r="E77" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
@@ -4495,12 +4541,18 @@
       <c r="AB77" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="17"/>
+      <c r="A78" s="17">
+        <v>74</v>
+      </c>
       <c r="B78" s="18"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
